--- a/data/정리데이터.xlsx
+++ b/data/정리데이터.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdew\Documents\GitHub\IITPMainProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1D930C-EAB0-4749-AE70-4DDFADE5E045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE370BC-F64D-4B9C-BC33-3DF9301CE2D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D8F08230-C532-449B-9D74-5A2DB5EEBD20}"/>
   </bookViews>
@@ -210,43 +210,11 @@
   </si>
   <si>
     <t>의전원
-박사입학정원</t>
-  </si>
-  <si>
-    <t>의전원
-석사입학/계</t>
-  </si>
-  <si>
-    <t>의전원
-석사입학/여</t>
-  </si>
-  <si>
-    <t>의전원
-박사입학/계</t>
-  </si>
-  <si>
-    <t>의전원
-박사입학/여</t>
-  </si>
-  <si>
-    <t>의전원
 석사재적/계</t>
   </si>
   <si>
     <t>의전원
-석사재적/여</t>
-  </si>
-  <si>
-    <t>의전원
 박사재적/계</t>
-  </si>
-  <si>
-    <t>의전원
-박사재적/여</t>
-  </si>
-  <si>
-    <t>의전원
-석사졸업/계</t>
   </si>
   <si>
     <t>의전원
@@ -335,6 +303,242 @@
   <si>
     <t>4학년/여</t>
   </si>
+  <si>
+    <t>의전원
+박사입학정원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의전원
+석사입학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의전원
+석사입학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의전원
+박사입학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의전원
+박사입학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의전원
+석사재적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의전원
+석사졸업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의전원
+박사재적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -345,7 +549,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.0000"/>
     <numFmt numFmtId="178" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,13 +590,35 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,8 +655,14 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -542,13 +774,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,9 +1146,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,15 +1486,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E3A9E2-46A2-465D-8DA1-176C7213E6DB}">
-  <dimension ref="A1:CW72"/>
+  <dimension ref="A1:CM72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:101" s="77" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91" s="77" customFormat="1" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="113" t="s">
         <v>14</v>
       </c>
@@ -1371,132 +1657,122 @@
       <c r="BA1" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="116" t="s">
+      <c r="BB1" s="128" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC1" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD1" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE1" s="129" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF1" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG1" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="116" t="s">
+      <c r="BH1" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI1" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="116" t="s">
+      <c r="BJ1" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK1" s="129" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL1" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="116" t="s">
+      <c r="BM1" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="116" t="s">
+      <c r="BN1" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="116" t="s">
+      <c r="BO1" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="116" t="s">
+      <c r="BP1" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="116" t="s">
+      <c r="BQ1" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="116" t="s">
+      <c r="BR1" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="116" t="s">
+      <c r="BS1" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="116" t="s">
+      <c r="BT1" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="116" t="s">
+      <c r="BU1" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="127" t="s">
+      <c r="BV1" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" s="116" t="s">
+      <c r="BW1" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="116" t="s">
+      <c r="BX1" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="116" t="s">
+      <c r="BY1" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="116" t="s">
+      <c r="BZ1" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="116" t="s">
+      <c r="CA1" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="116" t="s">
+      <c r="CB1" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" s="116" t="s">
+      <c r="CC1" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="116" t="s">
+      <c r="CD1" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" s="116" t="s">
+      <c r="CE1" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" s="116" t="s">
+      <c r="CF1" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" s="116" t="s">
+      <c r="CG1" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" s="116" t="s">
+      <c r="CH1" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" s="116" t="s">
+      <c r="CI1" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="CB1" s="116" t="s">
+      <c r="CJ1" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="CC1" s="116" t="s">
+      <c r="CK1" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="CD1" s="116" t="s">
+      <c r="CL1" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="CE1" s="116" t="s">
+      <c r="CM1" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="CF1" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="CG1" s="116" t="s">
-        <v>82</v>
-      </c>
-      <c r="CH1" s="116" t="s">
-        <v>83</v>
-      </c>
-      <c r="CI1" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="CJ1" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="CK1" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="CL1" s="116" t="s">
-        <v>87</v>
-      </c>
-      <c r="CM1" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN1" s="128"/>
-      <c r="CO1" s="128"/>
-      <c r="CP1" s="128"/>
-      <c r="CQ1" s="128"/>
-      <c r="CR1" s="128"/>
-      <c r="CS1" s="128"/>
-      <c r="CT1" s="128"/>
-      <c r="CU1" s="128"/>
-      <c r="CV1" s="128"/>
-      <c r="CW1" s="129"/>
     </row>
-    <row r="2" spans="1:101" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:91" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1950</v>
       </c>
@@ -1591,7 +1867,7 @@
       <c r="CL2" s="15"/>
       <c r="CM2" s="26"/>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1951</v>
       </c>
@@ -1686,7 +1962,7 @@
       <c r="CL3" s="1"/>
       <c r="CM3" s="12"/>
     </row>
-    <row r="4" spans="1:101" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:91" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>1952</v>
       </c>
@@ -1700,8 +1976,12 @@
       <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="17">
+        <v>189</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
       <c r="G4" s="17">
         <v>189</v>
       </c>
@@ -1801,7 +2081,7 @@
       <c r="CL4" s="15"/>
       <c r="CM4" s="26"/>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1953</v>
       </c>
@@ -1809,14 +2089,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C51" si="2">D5+C4</f>
+        <f>D5+C4</f>
         <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3">
+        <f>347+254</f>
+        <v>601</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
       <c r="G5" s="3">
         <f>347+254</f>
         <v>601</v>
@@ -1835,7 +2120,7 @@
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="4">
-        <f t="shared" ref="L5:L68" si="3">H5+L4</f>
+        <f>H5+L4</f>
         <v>411</v>
       </c>
       <c r="M5" s="5"/>
@@ -1918,20 +2203,24 @@
       <c r="CL5" s="1"/>
       <c r="CM5" s="12"/>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>1954</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C6:C51" si="2">D6+C5</f>
         <v>4</v>
       </c>
       <c r="D6" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="17">
+        <v>162</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
       <c r="G6" s="17">
         <v>162</v>
       </c>
@@ -1948,7 +2237,7 @@
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L6:L68" si="3">H6+L5</f>
         <v>536</v>
       </c>
       <c r="M6" s="19"/>
@@ -2031,7 +2320,7 @@
       <c r="CL6" s="15"/>
       <c r="CM6" s="26"/>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1955</v>
       </c>
@@ -2043,8 +2332,12 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3">
+        <v>291</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
       <c r="G7" s="3">
         <v>291</v>
       </c>
@@ -2148,7 +2441,7 @@
       <c r="CL7" s="1"/>
       <c r="CM7" s="12"/>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>1956</v>
       </c>
@@ -2160,8 +2453,12 @@
       <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="17">
+        <v>390</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
       <c r="G8" s="17">
         <v>390</v>
       </c>
@@ -2268,7 +2565,7 @@
       <c r="CL8" s="15"/>
       <c r="CM8" s="26"/>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1957</v>
       </c>
@@ -2280,8 +2577,12 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="3">
+        <v>511</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
       <c r="G9" s="3">
         <v>511</v>
       </c>
@@ -2388,7 +2689,7 @@
       <c r="CL9" s="1"/>
       <c r="CM9" s="12"/>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>1958</v>
       </c>
@@ -2400,8 +2701,12 @@
       <c r="D10" s="15">
         <v>1</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="17">
+        <v>599</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
       <c r="G10" s="17">
         <v>599</v>
       </c>
@@ -2508,7 +2813,7 @@
       <c r="CL10" s="15"/>
       <c r="CM10" s="26"/>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1959</v>
       </c>
@@ -2522,8 +2827,13 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3">
+        <f>846+143</f>
+        <v>989</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
       <c r="G11" s="3">
         <f>846+143</f>
         <v>989</v>
@@ -2632,7 +2942,7 @@
       <c r="CL11" s="1"/>
       <c r="CM11" s="12"/>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>1960</v>
       </c>
@@ -2644,8 +2954,12 @@
       <c r="D12" s="15">
         <v>1</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="17">
+        <v>650</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
       <c r="G12" s="17">
         <v>650</v>
       </c>
@@ -2752,7 +3066,7 @@
       <c r="CL12" s="15"/>
       <c r="CM12" s="26"/>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1961</v>
       </c>
@@ -2766,8 +3080,13 @@
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="3">
+        <f>711+127</f>
+        <v>838</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
       <c r="G13" s="3">
         <f>711+127</f>
         <v>838</v>
@@ -2876,7 +3195,7 @@
       <c r="CL13" s="1"/>
       <c r="CM13" s="12"/>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>1962</v>
       </c>
@@ -2888,8 +3207,12 @@
       <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="17">
+        <v>742</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
       <c r="G14" s="17">
         <v>742</v>
       </c>
@@ -3001,7 +3324,7 @@
       <c r="CL14" s="15"/>
       <c r="CM14" s="26"/>
     </row>
-    <row r="15" spans="1:101" ht="60" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:91" ht="60" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1963</v>
       </c>
@@ -3015,8 +3338,13 @@
       <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="3">
+        <f>90+847</f>
+        <v>937</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
       <c r="G15" s="3">
         <f>90+847</f>
         <v>937</v>
@@ -3125,7 +3453,7 @@
       <c r="CL15" s="1"/>
       <c r="CM15" s="12"/>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>1964</v>
       </c>
@@ -3137,8 +3465,12 @@
       <c r="D16" s="15">
         <v>1</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="17">
+        <v>906</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
       <c r="G16" s="17">
         <v>906</v>
       </c>
@@ -3257,8 +3589,12 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="3">
+        <v>853</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
       <c r="G17" s="3">
         <v>853</v>
       </c>
@@ -3415,8 +3751,12 @@
       <c r="D18" s="15">
         <v>1</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
+      <c r="E18" s="43">
+        <v>791</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
       <c r="G18" s="43">
         <v>791</v>
       </c>
@@ -3569,8 +3909,13 @@
       <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="E19" s="44">
+        <f>788+221</f>
+        <v>1009</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
       <c r="G19" s="44">
         <f>788+221</f>
         <v>1009</v>
@@ -3691,8 +4036,12 @@
       <c r="D20" s="15">
         <v>1</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="43">
+        <v>815</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
       <c r="G20" s="43">
         <v>815</v>
       </c>
@@ -3813,8 +4162,13 @@
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
+      <c r="E21" s="44">
+        <f>803+224</f>
+        <v>1027</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
       <c r="G21" s="44">
         <f>803+224</f>
         <v>1027</v>
@@ -3940,8 +4294,12 @@
       <c r="D22" s="15">
         <v>1</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
+      <c r="E22" s="43">
+        <v>814</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
       <c r="G22" s="43">
         <v>814</v>
       </c>
@@ -4060,8 +4418,12 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
+      <c r="E23" s="44">
+        <v>759</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
       <c r="G23" s="44">
         <v>759</v>
       </c>
@@ -4180,8 +4542,12 @@
       <c r="D24" s="15">
         <v>1</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
+      <c r="E24" s="43">
+        <v>744</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
       <c r="G24" s="43">
         <v>744</v>
       </c>
@@ -4300,8 +4666,12 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="E25" s="44">
+        <v>797</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
       <c r="G25" s="44">
         <v>797</v>
       </c>
@@ -4422,8 +4792,12 @@
       <c r="D26" s="15">
         <v>1</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
+      <c r="E26" s="43">
+        <v>878</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
       <c r="G26" s="43">
         <v>878</v>
       </c>
@@ -4542,8 +4916,12 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
+      <c r="E27" s="44">
+        <v>1009</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
       <c r="G27" s="44">
         <v>1009</v>
       </c>
@@ -4664,8 +5042,13 @@
       <c r="D28" s="15">
         <v>2</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
+      <c r="E28" s="43">
+        <f>1089+143</f>
+        <v>1232</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
       <c r="G28" s="43">
         <f>1089+143</f>
         <v>1232</v>
@@ -4793,8 +5176,13 @@
       <c r="D29" s="1">
         <v>2</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
+      <c r="E29" s="44">
+        <f>1220+80</f>
+        <v>1300</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0</v>
+      </c>
       <c r="G29" s="44">
         <f>1220+80</f>
         <v>1300</v>
@@ -4953,8 +5341,13 @@
       <c r="D30" s="15">
         <v>2</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
+      <c r="E30" s="43">
+        <f>1230+54</f>
+        <v>1284</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0</v>
+      </c>
       <c r="G30" s="43">
         <f>1230+54</f>
         <v>1284</v>
@@ -7442,7 +7835,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="45" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:91" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1993</v>
       </c>
@@ -7603,7 +7996,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="46" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:91" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>1994</v>
       </c>
@@ -7705,30 +8098,72 @@
       <c r="BM46" s="15"/>
       <c r="BN46" s="26"/>
       <c r="BO46" s="16"/>
-      <c r="BP46" s="15"/>
-      <c r="BQ46" s="27"/>
-      <c r="BR46" s="15"/>
-      <c r="BS46" s="15"/>
-      <c r="BT46" s="27"/>
-      <c r="BU46" s="15"/>
-      <c r="BV46" s="15"/>
-      <c r="BW46" s="28"/>
-      <c r="BX46" s="28"/>
-      <c r="BY46" s="15"/>
-      <c r="BZ46" s="15"/>
-      <c r="CA46" s="15"/>
-      <c r="CB46" s="15"/>
-      <c r="CC46" s="15"/>
-      <c r="CD46" s="15"/>
-      <c r="CE46" s="15"/>
-      <c r="CF46" s="28"/>
-      <c r="CG46" s="15"/>
-      <c r="CH46" s="15"/>
-      <c r="CI46" s="15"/>
-      <c r="CJ46" s="15"/>
-      <c r="CK46" s="15"/>
-      <c r="CL46" s="15"/>
-      <c r="CM46" s="26"/>
+      <c r="BP46" s="132">
+        <v>2933</v>
+      </c>
+      <c r="BQ46" s="133">
+        <v>624</v>
+      </c>
+      <c r="BR46" s="134"/>
+      <c r="BS46" s="134"/>
+      <c r="BT46" s="135"/>
+      <c r="BU46" s="132">
+        <v>2811</v>
+      </c>
+      <c r="BV46" s="133">
+        <v>523</v>
+      </c>
+      <c r="BW46" s="133">
+        <v>121</v>
+      </c>
+      <c r="BX46" s="132">
+        <v>3135</v>
+      </c>
+      <c r="BY46" s="133">
+        <v>647</v>
+      </c>
+      <c r="BZ46" s="132">
+        <v>3178</v>
+      </c>
+      <c r="CA46" s="133">
+        <v>681</v>
+      </c>
+      <c r="CB46" s="133">
+        <v>0</v>
+      </c>
+      <c r="CC46" s="133">
+        <v>0</v>
+      </c>
+      <c r="CD46" s="133">
+        <v>0</v>
+      </c>
+      <c r="CE46" s="133">
+        <v>0</v>
+      </c>
+      <c r="CF46" s="132">
+        <v>3422</v>
+      </c>
+      <c r="CG46" s="133">
+        <v>687</v>
+      </c>
+      <c r="CH46" s="132">
+        <v>3079</v>
+      </c>
+      <c r="CI46" s="133">
+        <v>562</v>
+      </c>
+      <c r="CJ46" s="132">
+        <v>3054</v>
+      </c>
+      <c r="CK46" s="133">
+        <v>598</v>
+      </c>
+      <c r="CL46" s="132">
+        <v>2932</v>
+      </c>
+      <c r="CM46" s="133">
+        <v>522</v>
+      </c>
     </row>
     <row r="47" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
@@ -8084,42 +8519,41 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="44">
-        <f>3652+3216</f>
-        <v>6868</v>
+        <f>3652</f>
+        <v>3652</v>
       </c>
       <c r="F49" s="44">
-        <f>30+39</f>
-        <v>69</v>
+        <f>30</f>
+        <v>30</v>
       </c>
       <c r="G49" s="44">
-        <f>3622+3177</f>
-        <v>6799</v>
+        <f>3622</f>
+        <v>3622</v>
       </c>
       <c r="H49" s="44">
-        <f>3239+2842</f>
-        <v>6081</v>
+        <v>3239</v>
       </c>
       <c r="I49" s="33">
         <f t="shared" si="0"/>
-        <v>89.439623474040303</v>
+        <v>89.425731639977911</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="1"/>
-        <v>718</v>
+        <v>383</v>
       </c>
       <c r="K49" s="3">
         <f t="shared" si="5"/>
-        <v>787</v>
+        <v>413</v>
       </c>
       <c r="L49" s="4">
         <f t="shared" si="3"/>
-        <v>63535</v>
+        <v>60693</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="6"/>
@@ -8260,38 +8694,38 @@
       </c>
       <c r="C50" s="15">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="15">
         <v>1</v>
       </c>
-      <c r="E50" s="43">
-        <v>3130</v>
+      <c r="E50" s="136">
+        <v>3216</v>
       </c>
       <c r="F50" s="43">
         <v>39</v>
       </c>
-      <c r="G50" s="43">
-        <v>3091</v>
-      </c>
-      <c r="H50" s="43">
-        <v>2871</v>
+      <c r="G50" s="136">
+        <v>3177</v>
+      </c>
+      <c r="H50" s="136">
+        <v>2842</v>
       </c>
       <c r="I50" s="30">
-        <f t="shared" si="0"/>
+        <f>H51/G51*100</f>
         <v>92.882562277580078</v>
       </c>
       <c r="J50" s="15">
-        <f t="shared" si="1"/>
+        <f>G51-H51</f>
         <v>220</v>
       </c>
       <c r="K50" s="17">
-        <f t="shared" si="5"/>
+        <f>F51+J50</f>
         <v>259</v>
       </c>
       <c r="L50" s="18">
-        <f t="shared" si="3"/>
-        <v>66406</v>
+        <f>H51+L49</f>
+        <v>63564</v>
       </c>
       <c r="M50" s="19"/>
       <c r="N50" s="20"/>
@@ -8451,38 +8885,38 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
-      <c r="E51" s="44">
-        <v>2999</v>
-      </c>
-      <c r="F51" s="44">
-        <v>38</v>
-      </c>
-      <c r="G51" s="44">
-        <v>2961</v>
-      </c>
-      <c r="H51" s="44">
-        <v>2772</v>
+      <c r="E51" s="43">
+        <v>3130</v>
+      </c>
+      <c r="F51" s="43">
+        <v>39</v>
+      </c>
+      <c r="G51" s="43">
+        <v>3091</v>
+      </c>
+      <c r="H51" s="43">
+        <v>2871</v>
       </c>
       <c r="I51" s="33">
-        <f t="shared" si="0"/>
+        <f>H52/G52*100</f>
         <v>93.61702127659575</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="1"/>
+        <f>G52-H52</f>
         <v>189</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="5"/>
+        <f>F52+J51</f>
         <v>227</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="3"/>
-        <v>69178</v>
+        <f>H52+L50</f>
+        <v>66336</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="6"/>
@@ -8652,18 +9086,30 @@
       <c r="B52" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
+      <c r="C52" s="15">
+        <v>64</v>
+      </c>
+      <c r="D52" s="15">
+        <v>1</v>
+      </c>
+      <c r="E52" s="44">
+        <v>2999</v>
+      </c>
+      <c r="F52" s="44">
+        <v>38</v>
+      </c>
+      <c r="G52" s="44">
+        <v>2961</v>
+      </c>
+      <c r="H52" s="44">
+        <v>2772</v>
+      </c>
       <c r="I52" s="30"/>
       <c r="J52" s="15"/>
       <c r="K52" s="17"/>
-      <c r="L52" s="18">
-        <f t="shared" si="3"/>
-        <v>69178</v>
+      <c r="L52" s="18" t="e">
+        <f>#REF!+L51</f>
+        <v>#REF!</v>
       </c>
       <c r="M52" s="19"/>
       <c r="N52" s="20"/>
@@ -8857,9 +9303,9 @@
         <f t="shared" ref="K53:K72" si="10">F53+J53</f>
         <v>506</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="3" t="e">
         <f t="shared" si="3"/>
-        <v>71974</v>
+        <v>#REF!</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="6"/>
@@ -9069,9 +9515,9 @@
         <f t="shared" si="10"/>
         <v>599</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L54" s="17" t="e">
         <f t="shared" si="3"/>
-        <v>75288</v>
+        <v>#REF!</v>
       </c>
       <c r="M54" s="19"/>
       <c r="N54" s="20"/>
@@ -9277,9 +9723,9 @@
         <f t="shared" si="10"/>
         <v>550</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="3" t="e">
         <f t="shared" si="3"/>
-        <v>78447</v>
+        <v>#REF!</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="6"/>
@@ -9462,9 +9908,9 @@
         <f t="shared" si="10"/>
         <v>228</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L56" s="17" t="e">
         <f t="shared" si="3"/>
-        <v>82207</v>
+        <v>#REF!</v>
       </c>
       <c r="M56" s="19"/>
       <c r="N56" s="20"/>
@@ -9650,9 +10096,9 @@
         <f t="shared" si="10"/>
         <v>345</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="e">
         <f t="shared" si="3"/>
-        <v>85579</v>
+        <v>#REF!</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="6"/>
@@ -9842,9 +10288,9 @@
         <f t="shared" si="10"/>
         <v>327</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="17" t="e">
         <f t="shared" si="3"/>
-        <v>89068</v>
+        <v>#REF!</v>
       </c>
       <c r="M58" s="19"/>
       <c r="N58" s="20"/>
@@ -10040,9 +10486,9 @@
         <f t="shared" si="10"/>
         <v>460</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="e">
         <f t="shared" si="3"/>
-        <v>92373</v>
+        <v>#REF!</v>
       </c>
       <c r="M59" s="81">
         <f t="shared" ref="M59:Q59" si="14">X59/75476*100</f>
@@ -10256,9 +10702,9 @@
         <f t="shared" si="10"/>
         <v>172</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L60" s="17" t="e">
         <f t="shared" si="3"/>
-        <v>96260</v>
+        <v>#REF!</v>
       </c>
       <c r="M60" s="19"/>
       <c r="N60" s="20"/>
@@ -10442,9 +10888,9 @@
         <f t="shared" si="10"/>
         <v>260</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L61" s="3" t="e">
         <f t="shared" si="3"/>
-        <v>99770</v>
+        <v>#REF!</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="6"/>
@@ -10534,8 +10980,12 @@
       <c r="BJ61" s="87">
         <v>48</v>
       </c>
-      <c r="BK61" s="1"/>
-      <c r="BL61" s="1"/>
+      <c r="BK61" s="130">
+        <v>159</v>
+      </c>
+      <c r="BL61" s="130">
+        <v>96</v>
+      </c>
       <c r="BM61" s="1"/>
       <c r="BN61" s="12"/>
       <c r="BO61" s="2">
@@ -10628,9 +11078,9 @@
         <f t="shared" si="10"/>
         <v>257</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L62" s="17" t="e">
         <f t="shared" si="3"/>
-        <v>102994</v>
+        <v>#REF!</v>
       </c>
       <c r="M62" s="19"/>
       <c r="N62" s="20"/>
@@ -10720,8 +11170,14 @@
       <c r="BJ62" s="80">
         <v>20</v>
       </c>
-      <c r="BK62" s="15"/>
-      <c r="BL62" s="15"/>
+      <c r="BK62" s="131">
+        <f>BG58-BG57</f>
+        <v>604</v>
+      </c>
+      <c r="BL62" s="131">
+        <f>BH58-BH57</f>
+        <v>335</v>
+      </c>
       <c r="BM62" s="15"/>
       <c r="BN62" s="26"/>
       <c r="BO62" s="16">
@@ -10815,9 +11271,9 @@
         <f t="shared" si="10"/>
         <v>296</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L63" s="3" t="e">
         <f t="shared" si="3"/>
-        <v>106089</v>
+        <v>#REF!</v>
       </c>
       <c r="M63" s="81">
         <f t="shared" ref="M63:M68" si="16">X63/W63*100</f>
@@ -11074,9 +11530,9 @@
         <f t="shared" si="10"/>
         <v>307</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L64" s="17" t="e">
         <f t="shared" si="3"/>
-        <v>109297</v>
+        <v>#REF!</v>
       </c>
       <c r="M64" s="55">
         <f t="shared" si="16"/>
@@ -11335,9 +11791,9 @@
         <f t="shared" si="10"/>
         <v>306</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L65" s="3" t="e">
         <f t="shared" si="3"/>
-        <v>112329</v>
+        <v>#REF!</v>
       </c>
       <c r="M65" s="81">
         <f t="shared" si="16"/>
@@ -11596,9 +12052,9 @@
         <f t="shared" si="10"/>
         <v>250</v>
       </c>
-      <c r="L66" s="17">
+      <c r="L66" s="17" t="e">
         <f t="shared" si="3"/>
-        <v>115529</v>
+        <v>#REF!</v>
       </c>
       <c r="M66" s="55">
         <f t="shared" si="16"/>
@@ -11857,9 +12313,9 @@
         <f t="shared" si="10"/>
         <v>185</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L67" s="3" t="e">
         <f t="shared" si="3"/>
-        <v>118654</v>
+        <v>#REF!</v>
       </c>
       <c r="M67" s="81">
         <f t="shared" si="16"/>
@@ -12120,9 +12576,9 @@
         <f t="shared" si="10"/>
         <v>226</v>
       </c>
-      <c r="L68" s="17">
+      <c r="L68" s="17" t="e">
         <f t="shared" si="3"/>
-        <v>121760</v>
+        <v>#REF!</v>
       </c>
       <c r="M68" s="55">
         <f t="shared" si="16"/>
@@ -12383,9 +12839,9 @@
         <f t="shared" si="10"/>
         <v>251</v>
       </c>
-      <c r="L69" s="3">
+      <c r="L69" s="3" t="e">
         <f t="shared" ref="L69:L72" si="28">H69+L68</f>
-        <v>124855</v>
+        <v>#REF!</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="6"/>
@@ -12588,9 +13044,9 @@
         <f t="shared" si="10"/>
         <v>181</v>
       </c>
-      <c r="L70" s="17">
+      <c r="L70" s="17" t="e">
         <f t="shared" si="28"/>
-        <v>128059</v>
+        <v>#REF!</v>
       </c>
       <c r="M70" s="19"/>
       <c r="N70" s="20"/>
@@ -12793,9 +13249,9 @@
         <f t="shared" si="10"/>
         <v>203</v>
       </c>
-      <c r="L71" s="3">
+      <c r="L71" s="3" t="e">
         <f t="shared" si="28"/>
-        <v>131174</v>
+        <v>#REF!</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="85"/>
@@ -12985,9 +13441,9 @@
         <f t="shared" si="10"/>
         <v>195</v>
       </c>
-      <c r="L72" s="17">
+      <c r="L72" s="17" t="e">
         <f t="shared" si="28"/>
-        <v>134199</v>
+        <v>#REF!</v>
       </c>
       <c r="M72" s="19"/>
       <c r="N72" s="20"/>
@@ -13098,5 +13554,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>